--- a/Excel/Cardapios.xlsx
+++ b/Excel/Cardapios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://senacspedu-my.sharepoint.com/personal/vitor_amamaro_senacsp_edu_br/Documents/Web/ProjetoIntegradorBuffet/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6E3956C-A458-4C6A-A96E-920C050FAD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{D6E3956C-A458-4C6A-A96E-920C050FAD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38B818C7-6DF1-4DAE-93C9-19316FB91392}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17778676-AEEB-46DA-ABD0-B692132AC18E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="54">
   <si>
     <t>Festa Infantil</t>
   </si>
@@ -147,6 +147,57 @@
   </si>
   <si>
     <t>Festa Debuntante</t>
+  </si>
+  <si>
+    <t>Casamento</t>
+  </si>
+  <si>
+    <t>Canapés</t>
+  </si>
+  <si>
+    <t>Caesar salad</t>
+  </si>
+  <si>
+    <t>Salada Waldorf</t>
+  </si>
+  <si>
+    <t>Mix de folhas nobres com molho de iogurte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arroz </t>
+  </si>
+  <si>
+    <t>Canelone de presunto e queijo</t>
+  </si>
+  <si>
+    <t>Batata Rustica</t>
+  </si>
+  <si>
+    <t>Filé de frango</t>
+  </si>
+  <si>
+    <t>Petit Gateau</t>
+  </si>
+  <si>
+    <t>Sucos</t>
+  </si>
+  <si>
+    <t>Agua</t>
+  </si>
+  <si>
+    <t>Refrigerante</t>
+  </si>
+  <si>
+    <t>Ilha de Drinks</t>
+  </si>
+  <si>
+    <t>Barman</t>
+  </si>
+  <si>
+    <t>Churrasco</t>
+  </si>
+  <si>
+    <t>Varia com numero de conidado</t>
   </si>
 </sst>
 </file>
@@ -213,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -222,18 +273,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -575,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADB96C8-33ED-4572-AF40-9DBDB66D8403}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,75 +641,106 @@
     <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="3"/>
+      <c r="K3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="H4" s="8"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="3"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>75</v>
       </c>
       <c r="D5" s="3"/>
@@ -668,19 +751,30 @@
       <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="6">
         <v>75</v>
       </c>
       <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="3"/>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>50</v>
       </c>
       <c r="D6" s="3"/>
@@ -688,22 +782,33 @@
       <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="6">
         <v>50</v>
       </c>
       <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="3"/>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>75</v>
       </c>
       <c r="D7" s="3"/>
@@ -714,19 +819,30 @@
       <c r="G7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="6">
         <v>75</v>
       </c>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="3"/>
+      <c r="K7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>70</v>
       </c>
       <c r="D8" s="3"/>
@@ -737,19 +853,30 @@
       <c r="G8" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="6">
         <v>70</v>
       </c>
       <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="3"/>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>50</v>
       </c>
       <c r="D9" s="3"/>
@@ -760,19 +887,30 @@
       <c r="G9" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="6">
         <v>50</v>
       </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="3"/>
+      <c r="K9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>65</v>
       </c>
       <c r="D10" s="3"/>
@@ -783,19 +921,30 @@
       <c r="G10" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="6">
         <v>65</v>
       </c>
       <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="3"/>
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <v>120</v>
       </c>
       <c r="D11" s="3"/>
@@ -806,19 +955,30 @@
       <c r="G11" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="7">
         <v>120</v>
       </c>
       <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="3"/>
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>42</v>
       </c>
       <c r="D12" s="3"/>
@@ -829,19 +989,30 @@
       <c r="G12" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="6">
         <v>42</v>
       </c>
       <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="3"/>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>350</v>
       </c>
       <c r="D13" s="3"/>
@@ -852,19 +1023,30 @@
       <c r="G13" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="6">
         <v>350</v>
       </c>
       <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="3"/>
+      <c r="K13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <v>400</v>
       </c>
       <c r="D14" s="3"/>
@@ -875,19 +1057,30 @@
       <c r="G14" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="6">
         <v>1050</v>
       </c>
       <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="3"/>
+      <c r="K14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="6">
         <v>400</v>
       </c>
       <c r="D15" s="3"/>
@@ -898,19 +1091,30 @@
       <c r="G15" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="6">
         <v>1050</v>
       </c>
       <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="3"/>
+      <c r="K15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="6">
         <v>400</v>
       </c>
       <c r="D16" s="3"/>
@@ -921,19 +1125,30 @@
       <c r="G16" s="1">
         <v>1</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="7">
         <v>1800</v>
       </c>
       <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="3"/>
+      <c r="K16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="6">
         <v>250</v>
       </c>
       <c r="D17" s="3"/>
@@ -944,12 +1159,23 @@
       <c r="G17" s="1">
         <v>1</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="6">
         <v>2500</v>
       </c>
       <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="3"/>
+      <c r="K17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" t="s">
+        <v>53</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -961,12 +1187,23 @@
       <c r="G18" s="1">
         <v>1</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="6">
         <v>2800</v>
       </c>
       <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="3"/>
+      <c r="K18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E19" s="3"/>
       <c r="F19" s="1" t="s">
         <v>32</v>
@@ -974,22 +1211,47 @@
       <c r="G19" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="6">
         <v>600</v>
       </c>
       <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="3"/>
+      <c r="K19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L19" t="s">
+        <v>53</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E20" s="3"/>
       <c r="F20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="8">
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="6">
         <v>900</v>
       </c>
       <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="3"/>
+      <c r="K20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E21" s="3"/>
       <c r="F21" s="1" t="s">
         <v>35</v>
@@ -997,24 +1259,32 @@
       <c r="G21" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="6">
         <v>1050</v>
       </c>
       <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="3"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="F2:I2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:N2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
